--- a/dados/atividades_extras.xlsx
+++ b/dados/atividades_extras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal-my.sharepoint.com/personal/matheus_rezende_cocal_com_br/Documents/Projetos/Dash-Gestao-Semanal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4AD4FD0E-9C11-48A5-B9E7-81E7408BE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878B7F4F-CB3D-4B85-ACD3-07BFE731D1F1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4AD4FD0E-9C11-48A5-B9E7-81E7408BE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA286FEF-059D-4E47-B8CA-1746DE1881BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
   <si>
     <t>Data</t>
   </si>
@@ -313,13 +324,25 @@
   </si>
   <si>
     <t>Marcelo Encarregado</t>
+  </si>
+  <si>
+    <t>Andre Felipe Souza</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO CONTROLE PRODUÇÃO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>["Processamento do Volume de Torta do Biogás NRD","Voo com drone"]</t>
+  </si>
+  <si>
+    <t>Voo com Drone e o Processamento do Volume de Torta do Biogás NRD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}" name="Tabela1" displayName="Tabela1" ref="A1:G56" totalsRowShown="0">
-  <autoFilter ref="A1:G56" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}" name="Tabela1" displayName="Tabela1" ref="A1:G57" totalsRowShown="0">
+  <autoFilter ref="A1:G57" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A170FD21-A72E-4531-B50C-84345790AB3B}" name="Data"/>
     <tableColumn id="2" xr3:uid="{57765CEC-BDFD-45EE-8FA0-FA72135159D5}" name="Solicitante"/>
@@ -745,23 +768,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>45523</v>
       </c>
@@ -805,7 +828,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>45523</v>
       </c>
@@ -828,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>45523</v>
       </c>
@@ -851,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>45523</v>
       </c>
@@ -872,7 +895,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>45539</v>
       </c>
@@ -895,7 +918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>45539</v>
       </c>
@@ -918,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>45540</v>
       </c>
@@ -941,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>45540</v>
       </c>
@@ -964,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>45540</v>
       </c>
@@ -987,7 +1010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>45551</v>
       </c>
@@ -1008,7 +1031,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>45551</v>
       </c>
@@ -1029,7 +1052,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>45566</v>
       </c>
@@ -1050,7 +1073,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>45566</v>
       </c>
@@ -1071,7 +1094,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>45567</v>
       </c>
@@ -1092,7 +1115,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>45575</v>
       </c>
@@ -1113,7 +1136,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>45575</v>
       </c>
@@ -1134,7 +1157,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>45579</v>
       </c>
@@ -1157,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>45581</v>
       </c>
@@ -1180,7 +1203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>45581</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>45582</v>
       </c>
@@ -1226,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>45581</v>
       </c>
@@ -1249,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>45581</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>45583</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>45586</v>
       </c>
@@ -1316,7 +1339,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>45587</v>
       </c>
@@ -1339,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>45590</v>
       </c>
@@ -1362,7 +1385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>45590</v>
       </c>
@@ -1385,7 +1408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>45588</v>
       </c>
@@ -1408,7 +1431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>45589</v>
       </c>
@@ -1431,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>45590</v>
       </c>
@@ -1454,7 +1477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>45587</v>
       </c>
@@ -1475,7 +1498,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>45595</v>
       </c>
@@ -1498,7 +1521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>45593</v>
       </c>
@@ -1519,7 +1542,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>45595</v>
       </c>
@@ -1540,7 +1563,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>45593</v>
       </c>
@@ -1561,7 +1584,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>45593</v>
       </c>
@@ -1582,7 +1605,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>45608</v>
       </c>
@@ -1603,7 +1626,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="4">
         <v>45608</v>
       </c>
@@ -1626,7 +1649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>45608</v>
       </c>
@@ -1649,7 +1672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="4">
         <v>45615</v>
       </c>
@@ -1670,7 +1693,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>45617</v>
       </c>
@@ -1691,7 +1714,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="4">
         <v>45638</v>
       </c>
@@ -1714,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>45638</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="4">
         <v>45638</v>
       </c>
@@ -1760,7 +1783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45639</v>
       </c>
@@ -1781,7 +1804,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="4">
         <v>45644</v>
       </c>
@@ -1802,7 +1825,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>45645</v>
       </c>
@@ -1823,7 +1846,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="4">
         <v>45659</v>
       </c>
@@ -1846,7 +1869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>45666</v>
       </c>
@@ -1867,7 +1890,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="4">
         <v>45671</v>
       </c>
@@ -1888,7 +1911,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>45674</v>
       </c>
@@ -1909,7 +1932,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="4">
         <v>45673</v>
       </c>
@@ -1932,7 +1955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>45678</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="4">
         <v>45679</v>
       </c>
@@ -1976,7 +1999,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>45681</v>
       </c>
@@ -1996,6 +2019,29 @@
         <v>0.125</v>
       </c>
       <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados/atividades_extras.xlsx
+++ b/dados/atividades_extras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal-my.sharepoint.com/personal/matheus_rezende_cocal_com_br/Documents/Projetos/Dash-Gestao-Semanal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{4AD4FD0E-9C11-48A5-B9E7-81E7408BE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA286FEF-059D-4E47-B8CA-1746DE1881BF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4AD4FD0E-9C11-48A5-B9E7-81E7408BE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{125CC504-8803-41DA-84A0-EA90697C12F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="104">
   <si>
     <t>Data</t>
   </si>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>Voo com Drone e o Processamento do Volume de Torta do Biogás NRD</t>
+  </si>
+  <si>
+    <t>SUPERVISÃO PLANEJAMENTO CONTROLE PRODUÇÃO</t>
+  </si>
+  <si>
+    <t>["Voo com drone","Processamento VOLUME DA TORTA DO BIOGAZ NRD-04-02-25"]</t>
+  </si>
+  <si>
+    <t>Processamento para VOLUME DA TORTA DO BIOGAZ NRD-04-02-25</t>
+  </si>
+  <si>
+    <t>["Mapa"]</t>
   </si>
 </sst>
 </file>
@@ -436,8 +448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}" name="Tabela1" displayName="Tabela1" ref="A1:G57" totalsRowShown="0">
-  <autoFilter ref="A1:G57" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}" name="Tabela1" displayName="Tabela1" ref="A1:G59" totalsRowShown="0">
+  <autoFilter ref="A1:G59" xr:uid="{214859BB-9D91-418E-B13E-FDA579BB8449}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A170FD21-A72E-4531-B50C-84345790AB3B}" name="Data"/>
     <tableColumn id="2" xr3:uid="{57765CEC-BDFD-45EE-8FA0-FA72135159D5}" name="Solicitante"/>
@@ -768,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2043,6 +2055,50 @@
         <v>99</v>
       </c>
     </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
